--- a/ISPEC2025/Registration_Form.xlsx
+++ b/ISPEC2025/Registration_Form.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21216" windowHeight="10464"/>
+    <workbookView windowWidth="23040" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
-  <si>
-    <t>Registration form for 2024 International Conference on Information Security Practice and Experience (ISPEC 2024)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+  <si>
+    <t>Registration form for 2025 International Conference on Information Security Practice and Experience (ISPEC 2025)</t>
   </si>
   <si>
     <t>No.</t>
@@ -97,9 +97,8 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Author:4000CNY/550USD；
-Standard (Before 5 September)：4000CNY/550USD；
-Standard (After 5 September)：4500CNY/650USD；
+    <t xml:space="preserve">Standard (Before 16 October)：4000CNY；
+Standard (After 16 October)：4500CNY；
 </t>
   </si>
   <si>
@@ -107,12 +106,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
       <t>Payment receipt and registration form</t>
     </r>
     <r>
@@ -131,7 +124,7 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>Please email to cheng_tan@whut.edu.cn</t>
+      <t>Please email to 1841974993@qq.com</t>
     </r>
   </si>
   <si>
@@ -139,21 +132,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Dr. Cheng Tan</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -172,7 +150,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>）：</t>
+      <t>）</t>
     </r>
     <r>
       <rPr>
@@ -181,7 +159,16 @@
         <rFont val="Times New Roman"/>
         <charset val="134"/>
       </rPr>
-      <t>cheng_tan@whut.edu.cn</t>
+      <t>Miss. Zhenjia Xiao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：1841974993@qq.com</t>
     </r>
   </si>
 </sst>
@@ -1321,8 +1308,8 @@
   <sheetPr/>
   <dimension ref="A1:XFC44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1410,9 +1397,8 @@
       <c r="D5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="11" t="str">
-        <f>IF(D5="Choose","Choose",IF(D5="Regular Author Registration","$650.00",IF(D5="Regular Registration","$500.00",IF(D5="Student Registration","$300.00",IF(D5="Online Author Registration","$350.00","Please choose Register Type")))))</f>
-        <v>Choose</v>
+      <c r="E5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="9"/>
@@ -1427,9 +1413,8 @@
       <c r="D6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="11" t="str">
-        <f>IF(D6="Choose","Choose",IF(D6="Regular Author Registration","$650.00",IF(D6="Regular Registration","$500.00",IF(D6="Student Registration","$300.00",IF(D6="Online Author Registration","$350.00","Please choose Register Type")))))</f>
-        <v>Choose</v>
+      <c r="E6" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="9"/>
@@ -1449,9 +1434,8 @@
       <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="11" t="str">
-        <f>IF(D7="Choose","Choose",IF(D7="Regular Author Registration","$650.00",IF(D7="Regular Registration","$500.00",IF(D7="Student Registration","$300.00",IF(D7="Online Author Registration","$350.00","Please choose Register Type")))))</f>
-        <v>Choose</v>
+      <c r="E7" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="9"/>
@@ -1466,9 +1450,8 @@
       <c r="D8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="11" t="str">
-        <f>IF(D8="Choose","Choose",IF(D8="Regular Author Registration","$650.00",IF(D8="Regular Registration","$500.00",IF(D8="Student Registration","$300.00",IF(D8="Online Author Registration","$350.00","Please choose Register Type")))))</f>
-        <v>Choose</v>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="9"/>
@@ -2037,10 +2020,10 @@
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D8">
-      <formula1>"Choose,Author:4000CNY/550USD,Standard(Before 5 September):4000CNY/550USD,Standard(After 5 September):4500CNY/650USD"</formula1>
+      <formula1>"Choose,Standard(Before 16 October):4000CNY,Standard(After 16 October):4500CNY"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4:E8">
-      <formula1>"Choose,4500CNY/650USD,4000CNY/550USD"</formula1>
+      <formula1>"Choose, (Before 16 October)：4000CNY, (After 16 October)：4500CNY"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F8"/>
   </dataValidations>
